--- a/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_train.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_preprocessing/KPCB_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1276F0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD146570&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139D90&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139D20&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C040&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C0B0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CE40&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CC80&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CC10&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CBA0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CB30&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD760A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CAC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CA50&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76CE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C970&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C900&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C890&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C2E0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C190&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C120&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD762D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C580&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C4A0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C200&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DCB0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D620&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD777D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C510&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL366266</t>
+          <t>CHEMBL444864</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCn3ccnc3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>N=C(N)SCCCn1c(-c2ccc3ccccc3c2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(CCCn3ccnc3)c3ccccc23)=C1Nc1ccccc1</t>
+          <t>N=C(N)SCCCn1c(-c2ccc3ccccc3c2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>411.47</v>
+        <v>454.56</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
@@ -2293,7 +2293,7 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>80.95</v>
+        <v>100.97</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD775A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C270&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL444864</t>
+          <t>CHEMBL163269</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2ccc3ccccc3c2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>N=C(N)SCCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2ccc3ccccc3c2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>N=C(N)SCCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C6D0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL163269</t>
+          <t>CHEMBL178945</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccs4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccs4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>454.56</v>
+        <v>495.61</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" t="n">
         <v>6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>5</v>
       </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
       <c r="M29" t="n">
-        <v>100.97</v>
+        <v>72.16</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD774C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C350&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL178945</t>
+          <t>CHEMBL300422</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccs4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(OC1CNCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccs4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(OC1CNCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,25 +2479,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>495.61</v>
+        <v>493.47</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J30" t="n">
         <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>72.16</v>
+        <v>173.62</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C5F0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL300422</t>
+          <t>CHEMBL285613</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C(OC1CNCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(C(CO)CO)C3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C(OC1CNCC1Cc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(C(CO)CO)C3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>493.47</v>
+        <v>440.46</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
         <v>7</v>
       </c>
-      <c r="K31" t="n">
-        <v>4</v>
-      </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>173.62</v>
+        <v>99.73</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD773E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C430&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL285613</t>
+          <t>CHEMBL316918</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(C(CO)CO)C3</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(C(CO)CO)C3</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>440.46</v>
+        <v>410.48</v>
       </c>
       <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>99.73</v>
+        <v>82.05</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DE70&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL316918</t>
+          <t>CHEMBL26817</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(CCO)C3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CC(CN)C4)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(CCO)C3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>410.48</v>
+        <v>396.45</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
@@ -2692,16 +2692,16 @@
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>82.05</v>
+        <v>62.43</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C3C0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL26817</t>
+          <t>CHEMBL327723</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(CCO)C3</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CCC(CN)CC4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>O=C1NCc2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CN(CCO)C3</t>
+          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CCC(CN)CC4)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>396.45</v>
+        <v>438.53</v>
       </c>
       <c r="H34" t="n">
         <v>2</v>
@@ -2760,16 +2760,16 @@
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>62.43</v>
+        <v>82.05</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C820&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL327723</t>
+          <t>CHEMBL27387</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CCC(CN)CC4)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CS(=O)C3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3c4n(c5ccccc35)CCC(CN)CC4)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CS(=O)C3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>438.53</v>
+        <v>399.43</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>82.05</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C660&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL27387</t>
+          <t>CHEMBL435868</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CS(=O)C3</t>
+          <t>N=C(N)SCCCn1c(-c2cc3ccccc3o2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CS(=O)C3</t>
+          <t>N=C(N)SCCCn1c(-c2cc3ccccc3o2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>399.43</v>
+        <v>444.52</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>73.09999999999999</v>
+        <v>114.11</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CD60&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL435868</t>
+          <t>CHEMBL48988</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3o2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(OC1CCCC1Oc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3o2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C(OC1CCCC1Oc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>444.52</v>
+        <v>494.45</v>
       </c>
       <c r="H37" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
         <v>3</v>
       </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4</v>
-      </c>
       <c r="M37" t="n">
-        <v>114.11</v>
+        <v>170.82</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DE00&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL48988</t>
+          <t>CHEMBL368193</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Oc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>C=Cn1cc(C2=C(c3nn(CCCN(C)C)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>O=C(OC1CCCC1Oc1ccc(O)cc1)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>C=Cn1cc(C2=C(c3nn(CCCN(C)C)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>494.45</v>
+        <v>439.52</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>170.82</v>
+        <v>72.16</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DD90&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL368193</t>
+          <t>CHEMBL282612</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>C=Cn1cc(C2=C(c3nn(CCCN(C)C)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>NC1=NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C=Cn1cc(C2=C(c3nn(CCCN(C)C)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>NC1=NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>439.52</v>
+        <v>382.45</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>7</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>5</v>
       </c>
-      <c r="L39" t="n">
-        <v>4</v>
-      </c>
       <c r="M39" t="n">
-        <v>72.16</v>
+        <v>65.31</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DD20&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL184146</t>
+          <t>CHEMBL367162</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
+          <t>O=C(N[C@@H]1Cc2ccccc2C1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CN1CCN(CCCn2cc(C3=C(Nc4ccccc4)C(=O)NC3=O)c3ccccc32)CC1</t>
+          <t>O=C(N[C@@H]1Cc2ccccc2C1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>443.55</v>
+        <v>569.52</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
         <v>7</v>
@@ -3174,10 +3174,10 @@
         <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>69.61</v>
+        <v>190.69</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C7B0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL282612</t>
+          <t>CHEMBL147986</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NC1=NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@H]1CCC[C@@H]3N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NC1=NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1CSC3</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1CCC[C@H]3N1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>382.45</v>
+        <v>406.45</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3239,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>65.31</v>
+        <v>68.06</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD767A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C740&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL367162</t>
+          <t>CHEMBL360304</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1Cc2ccccc2C1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1Cc2ccccc2C1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4cccc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>569.52</v>
+        <v>539.64</v>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
         <v>7</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M42" t="n">
-        <v>190.69</v>
+        <v>72.16</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD765E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DC40&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL147986</t>
+          <t>CHEMBL148745</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@H]1CCC[C@@H]3N1</t>
+          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1CCC[C@H]3N1</t>
+          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>406.45</v>
+        <v>466.44</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>8</v>
+      </c>
+      <c r="K43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>8</v>
-      </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>68.06</v>
+        <v>161.59</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DBD0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL148745</t>
+          <t>CHEMBL263910</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C(N[C@@H]1C2CC(C3CCCC32)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC(CCc1ccc(O)cc1)OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1</t>
+          <t>O=C(N[C@@H]1C2CC(C3CCCC32)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>466.44</v>
+        <v>587.58</v>
       </c>
       <c r="H44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
         <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>161.59</v>
+        <v>190.69</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DAF0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL263910</t>
+          <t>CHEMBL60455</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1C2CC(C3CCCC32)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C(N[C@@H]1CCC[C@H]1COC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1C2CC(C3CCCC32)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C(N[C@@H]1CCC[C@H]1COC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>587.58</v>
+        <v>535.51</v>
       </c>
       <c r="H45" t="n">
         <v>6</v>
@@ -3508,10 +3508,10 @@
         <v>10</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>3</v>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DA10&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL60455</t>
+          <t>CHEMBL338956</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCC[C@H]1COC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CO[C@H]1[C@@H](N(C)C(=O)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)N[C@@H]4O</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CCC[C@H]1COC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CO[C@H]1[C@@H](N(C)C(=O)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)N[C@@H]4O</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>535.51</v>
+        <v>586.65</v>
       </c>
       <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" t="n">
         <v>6</v>
       </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>8</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3</v>
-      </c>
       <c r="M46" t="n">
-        <v>190.69</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D9A0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL338956</t>
+          <t>CHEMBL300549</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)C(=O)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)N[C@@H]4O</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)C(=O)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)N[C@@H]4O</t>
+          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>586.65</v>
+        <v>514.63</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
         <v>5</v>
       </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>97.95999999999999</v>
+        <v>59.27</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D930&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL300549</t>
+          <t>CHEMBL335012</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CO[C@H]1[C@@H](N(C)C(=O)c2cccnc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cn1cc(C2=C(c3cn(C4CCN(Cc5ccccc5)CC4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>CO[C@H]1[C@@H](N(C)C(=O)c2cccnc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>514.63</v>
+        <v>571.64</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M48" t="n">
-        <v>59.27</v>
+        <v>90.62</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D8C0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL426587</t>
+          <t>CHEMBL315389</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4csc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNS(=O)(=O)c1ccccc1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4csc5ccccc45)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNS(=O)(=O)c1ccccc1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>545.67</v>
+        <v>580.67</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>7</v>
       </c>
       <c r="L49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>72.16</v>
+        <v>111.43</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D850&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL315389</t>
+          <t>CHEMBL421947</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNS(=O)(=O)c1ccccc1)CCn1cc2c2ccccc21</t>
+          <t>CN1[C@H]2CC[C@@H]1n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNS(=O)(=O)c1ccccc1)CCn1cc2c2ccccc21</t>
+          <t>CN1[C@@H]2CC[C@H]1n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>580.67</v>
+        <v>406.45</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L50" t="n">
         <v>5</v>
       </c>
       <c r="M50" t="n">
-        <v>111.43</v>
+        <v>59.27</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D7E0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL421947</t>
+          <t>CHEMBL492118</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CN1[C@H]2CC[C@@H]1n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
+          <t>CC(C)=C1CC(CO)(COC(=O)CCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CN1[C@@H]2CC[C@H]1n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4=O</t>
+          <t>CC(C)=C1CC(CO)(COC(=O)CCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>406.45</v>
+        <v>448.52</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7</v>
+      </c>
+      <c r="K51" t="n">
         <v>3</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>8</v>
-      </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>59.27</v>
+        <v>82.06</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD776F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D690&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL492118</t>
+          <t>CHEMBL146564</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)CCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@H]1COC[C@@H]3N1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CC(C)=C1CC(CO)(COC(=O)CCOc2ccc(C#Cc3ccc(C)cc3)cc2)OC1=O</t>
+          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1COC[C@H]3N1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>448.52</v>
+        <v>408.42</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>82.06</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD766C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16D1C0&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL146564</t>
+          <t>CHEMBL350059</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@H]1COC[C@@H]3N1</t>
+          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)c2c1c1c3ccccc3n3c1c1c2c2ccccc2n1[C@@H]1COC[C@H]3N1</t>
+          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4043,25 +4043,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>408.42</v>
+        <v>454.56</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>77.29000000000001</v>
+        <v>100.97</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD763B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CF90&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL350059</t>
+          <t>CHEMBL175956</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2cn(-c3cccnc3)c3ccccc23)=C1c1[nH]nc2ccccc12</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>N=C(N)SCCCn1c(-c2cccc3ccccc23)c(C2=CC(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2cn(-c3cccnc3)c3ccccc23)=C1c1[nH]nc2ccccc12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4111,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>454.56</v>
+        <v>405.42</v>
       </c>
       <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
         <v>3</v>
       </c>
-      <c r="I54" t="n">
-        <v>4</v>
-      </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>5</v>
       </c>
-      <c r="L54" t="n">
-        <v>4</v>
-      </c>
       <c r="M54" t="n">
-        <v>100.97</v>
+        <v>92.67</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CF20&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL175956</t>
+          <t>CHEMBL326688</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(-c3cccnc3)c3ccccc23)=C1c1[nH]nc2ccccc12</t>
+          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cn(-c3cccnc3)c3ccccc23)=C1c1[nH]nc2ccccc12</t>
+          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>405.42</v>
+        <v>424.5</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>92.67</v>
+        <v>67.23</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16CDD0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL326688</t>
+          <t>CHEMBL294120</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCCOC(CO)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1cc(C2=C(c3cccc4ccccc34)C(=O)NC2=O)c2cccnc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCCOC(CO)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>424.5</v>
+        <v>455.51</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
         <v>4</v>
       </c>
       <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
         <v>6</v>
       </c>
-      <c r="K56" t="n">
-        <v>5</v>
-      </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>67.23</v>
+        <v>85.48999999999999</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16C9E0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL294120</t>
+          <t>CHEMBL89833</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCCOC(CO)CCn1cc2c2ccccc21</t>
+          <t>O=C(NC1CCCC1OCc1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCCOC(CO)CCn1cc2c2ccccc21</t>
+          <t>O=C(NC1CCCC1OCc1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4315,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>455.51</v>
+        <v>507.5</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>85.48999999999999</v>
+        <v>173.62</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DF50&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL89833</t>
+          <t>CHEMBL328229</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>O=C(NC1CCCC1OCc1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNCc1ccccc1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>O=C(NC1CCCC1OCc1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNCc1ccccc1)CCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>507.5</v>
+        <v>530.63</v>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>173.62</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DEE0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CHEMBL328229</t>
+          <t>CHEMBL186290</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNCc1ccccc1)CCn1cc2c2ccccc21</t>
+          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCO[C@H](CNCc1ccccc1)CCn1cc2c2ccccc21</t>
+          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>530.63</v>
+        <v>508.58</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
         <v>7</v>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M59" t="n">
-        <v>77.29000000000001</v>
+        <v>91.95</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E030&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBL186290</t>
+          <t>CHEMBL434415</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
+          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cc1cc2c3c(c1)c(C1=C(c4cnc5ccccn45)C(=O)NC1=O)cn3CCN(C(=O)N1CCCCC1)C2</t>
+          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>508.58</v>
+        <v>542.64</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -4528,16 +4528,16 @@
         <v>4</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M60" t="n">
-        <v>91.95</v>
+        <v>60.66</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16DFC0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHEMBL434415</t>
+          <t>CHEMBL368895</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CO[C@H]1[C@@H](N(C)c2ccccc2)C[C@@H]2O[C@@]1(C)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4583,11 +4583,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>542.64</v>
+        <v>539.64</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -4596,16 +4596,16 @@
         <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L61" t="n">
         <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>60.66</v>
+        <v>72.16</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E0A0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHEMBL368895</t>
+          <t>CHEMBL340259</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1nc(C2=C(c3cn(-c4ccc5ccccc5c4)c4ccccc34)C(=O)NC2=O)c2ccccc21</t>
+          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2ccccc21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>539.64</v>
+        <v>485.54</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>72.16</v>
+        <v>83.72</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E180&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHEMBL340259</t>
+          <t>CHEMBL184042</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2cn(CCCN3CCCC3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C2=C1c1cn(c3ccccc13)CCOCCOCCOCCn1cc2c2ccccc21</t>
+          <t>O=C1NC(=O)C(c2cn(CCCN3CCCC3)c3ccccc23)=C1Nc1ccccc1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>485.54</v>
+        <v>414.51</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7</v>
+      </c>
+      <c r="K63" t="n">
         <v>5</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6</v>
-      </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>83.72</v>
+        <v>66.37</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E1F0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD770D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E260&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHEMBL105477</t>
+          <t>CHEMBL103628</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CN1CCOCCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CC1</t>
+          <t>CN1CCN(C)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCN(C)CC1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>511.63</v>
+        <v>524.67</v>
       </c>
       <c r="H65" t="n">
         <v>1</v>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="M65" t="n">
-        <v>71.73999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD768F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E2D0&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHEMBL103421</t>
+          <t>CHEMBL59677</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CCN1CCOCCN(CC)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
+          <t>O=C(N[C@@H]1CNC[C@H]1NC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CCN1CCOCCN(CC)CCn2cc(c3ccccc32)C2=C(C(=O)NC2=O)c2cn(c3ccccc23)CCOCC1</t>
+          <t>O=C(N[C@@H]1CNC[C@H]1NC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>583.73</v>
+        <v>521.48</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>80.97</v>
+        <v>205.52</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E340&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHEMBL59677</t>
+          <t>CHEMBL2151412</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CNC[C@H]1NC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1CNC[C@H]1NC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4991,40 +4991,66 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>521.48</v>
+        <v>452.52</v>
       </c>
       <c r="H67" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" t="n">
-        <v>205.52</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
+        <v>83.36</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>CHEMBL2156012</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Inhibition of PKCbeta-1 by scintillation proximity assay</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16ED50&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5062,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CHEMBL2151412</t>
+          <t>CHEMBL80525</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5070,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
+          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
+          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5089,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>452.52</v>
+        <v>547.52</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
         <v>3</v>
       </c>
-      <c r="K68" t="n">
-        <v>6</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4</v>
-      </c>
       <c r="M68" t="n">
-        <v>83.36</v>
+        <v>190.69</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5099,16 +5125,16 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>5.1</v>
+        <v>40</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>CHEMBL2156012</t>
+          <t>CHEMBL768098</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Inhibition of PKCbeta-1 by scintillation proximity assay</t>
+          <t>Inhibitory concentration against recombinant human Protein kinase C beta 2 isozyme</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -5118,7 +5144,7 @@
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EC00&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5130,89 +5156,63 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHEMBL80525</t>
+          <t>C02163263</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C1NC(=O)/C(=C/c2ccc(OS(=O)(=O)c3cc(Cl)cc(Cl)c3)cc2)N1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
+          <t>O=C1NC(=O)/C(=C/c2ccc(OS(=O)(=O)c3cc(Cl)cc(Cl)c3)cc2)N1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>547.52</v>
+        <v>413.24</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>190.69</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
-        <v>40</v>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>CHEMBL768098</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against recombinant human Protein kinase C beta 2 isozyme</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>101.57</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD778B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1385F0&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5224,7 +5224,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C02163263</t>
+          <t>C08738284</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5232,12 +5232,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)/C(=C/c2ccc(OS(=O)(=O)c3cc(Cl)cc(Cl)c3)cc2)N1</t>
+          <t>OC[C@@H]1O[C@@H](OC[C@H]2O[C@@](O)(CO)[C@@H](O)[C@H]2O)[C@@H](O)[C@@H](O)[C@H]1O</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)/C(=C/c2ccc(OS(=O)(=O)c3cc(Cl)cc(Cl)c3)cc2)N1</t>
+          <t>OC[C@@H]1O[C@@H](OC[C@H]2O[C@@](O)(CO)[C@@H](O)[C@H]2O)[C@@H](O)[C@@H](O)[C@H]1O</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5251,25 +5251,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>413.24</v>
+        <v>342.3</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
         <v>5</v>
       </c>
-      <c r="J70" t="n">
-        <v>4</v>
-      </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>101.57</v>
+        <v>189.53</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5280,7 +5280,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD67A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139380&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C08738284</t>
+          <t>C09970242</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5300,12 +5300,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>OC[C@@H]1O[C@@H](OC[C@H]2O[C@@](O)(CO)[C@@H](O)[C@H]2O)[C@@H](O)[C@@H](O)[C@H]1O</t>
+          <t>CC(=O)N[C@@]1(C)[C@@](C)([C@H](O)[C@@H](O)C[NH3+])O[C@@](O)(C(=O)[O-])C(C)(C)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OC[C@@H]1O[C@@H](OC[C@H]2O[C@@](O)(CO)[C@@H](O)[C@H]2O)[C@@H](O)[C@@H](O)[C@H]1O</t>
+          <t>CC(=O)N[C@@]1(C)[C@@](C)([C@H](O)[C@@H](O)C[NH3+])O[C@@](O)(C(=O)[O-])C(C)(C)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5319,25 +5319,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>342.3</v>
+        <v>378.42</v>
       </c>
       <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="n">
         <v>8</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11</v>
       </c>
       <c r="J71" t="n">
         <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>189.53</v>
+        <v>187.02</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5348,7 +5348,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139AF0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5360,7 +5360,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C09970242</t>
+          <t>C61809532</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5368,12 +5368,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CC(=O)N[C@@]1(C)[C@@](C)([C@H](O)[C@@H](O)C[NH3+])O[C@@](O)(C(=O)[O-])C(C)(C)[C@@]1(C)O</t>
+          <t>NC(=O)CN(CC(N)=O)C(=O)C1(/C(N)=N/O)CCOCC1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CC(=O)N[C@@]1(C)[C@@](C)([C@H](O)[C@@H](O)C[NH3+])O[C@@](O)(C(=O)[O-])C(C)(C)[C@@]1(C)O</t>
+          <t>NC(=O)CN(CC(N)=O)C(=O)C1(/C(N)=N/O)CCOCC1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5387,16 +5387,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>378.42</v>
+        <v>301.3</v>
       </c>
       <c r="H72" t="n">
+        <v>4</v>
+      </c>
+      <c r="I72" t="n">
         <v>6</v>
       </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>187.02</v>
+        <v>174.33</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5416,7 +5416,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138430&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5428,7 +5428,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C61809532</t>
+          <t>C13099280</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NC(=O)CN(CC(N)=O)C(=O)C1(/C(N)=N/O)CCOCC1</t>
+          <t>Nc1[nH]c(=S)[nH]c(=O)c1/N=N/c1c(Br)cc(S(N)(=O)=O)cc1Br</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NC(=O)CN(CC(N)=O)C(=O)C1(/C(N)=N/O)CCOCC1</t>
+          <t>Nc1[nH]c(=S)[nH]c(=O)c1/N=N/c1c(Br)cc(S(N)(=O)=O)cc1Br</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5455,25 +5455,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>301.3</v>
+        <v>484.16</v>
       </c>
       <c r="H73" t="n">
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>174.33</v>
+        <v>159.55</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5484,7 +5484,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA2B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B6F0&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C13099280</t>
+          <t>C44021601</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5504,12 +5504,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Nc1[nH]c(=S)[nH]c(=O)c1/N=N/c1c(Br)cc(S(N)(=O)=O)cc1Br</t>
+          <t>CN(C)c1ccc2c(c1O)C(=O)[C@H]1C(=O)[C@@]3(O)C([O-])=C(C(N)=O)C(=O)[C@@H]([NH+](C)C)[C@H]3C[C@@H]1C2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nc1[nH]c(=S)[nH]c(=O)c1/N=N/c1c(Br)cc(S(N)(=O)=O)cc1Br</t>
+          <t>CN(C)c1ccc2c(c1O)C(=O)[C@H]1C(=O)[C@@]3(O)C([O-])=C(C(N)=O)C(=O)[C@@H]([NH+](C)C)[C@H]3C[C@@H]1C2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5523,25 +5523,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>484.16</v>
+        <v>457.48</v>
       </c>
       <c r="H74" t="n">
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
         <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>159.55</v>
+        <v>165.5</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5552,7 +5552,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA23B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AD50&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5564,7 +5564,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C44021601</t>
+          <t>C17414669</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc2c(c1O)C(=O)[C@H]1C(=O)[C@@]3(O)C([O-])=C(C(N)=O)C(=O)[C@@H]([NH+](C)C)[C@H]3C[C@@H]1C2</t>
+          <t>C/C(=N/NC(=O)c1ccccc1[N-]S(=O)(=O)c1cccs1)c1nc2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CN(C)c1ccc2c(c1O)C(=O)[C@H]1C(=O)[C@@]3(O)C([O-])=C(C(N)=O)C(=O)[C@@H]([NH+](C)C)[C@H]3C[C@@H]1C2</t>
+          <t>C/C(=N/NC(=O)c1ccccc1[N-]S(=O)(=O)c1cccs1)c1nc2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5591,25 +5591,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>457.48</v>
+        <v>438.51</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
         <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>165.5</v>
+        <v>118.38</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5620,7 +5620,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1382E0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C17414669</t>
+          <t>C05440557</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>C/C(=N/NC(=O)c1ccccc1[N-]S(=O)(=O)c1cccs1)c1nc2ccccc2[nH]1</t>
+          <t>Oc1ccc2c3c1O[C@H]1[C@H](O)C=C[C@@H]4[C@H](C2)[NH2+]CC[C@]341</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>C/C(=N/NC(=O)c1ccccc1[N-]S(=O)(=O)c1cccs1)c1nc2ccccc2[nH]1</t>
+          <t>Oc1ccc2c3c1O[C@H]1[C@H](O)C=C[C@@H]4[C@H](C2)[NH2+]CC[C@]341</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5659,25 +5659,25 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>438.51</v>
+        <v>272.32</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>118.38</v>
+        <v>66.3</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5688,7 +5688,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B7D0&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5700,7 +5700,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C05440557</t>
+          <t>C35359532</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5708,12 +5708,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Oc1ccc2c3c1O[C@H]1[C@H](O)C=C[C@@H]4[C@H](C2)[NH2+]CC[C@]341</t>
+          <t>[NH3+][C@@H](c1ccncc1)c1cc2c(cc1Cl)NC(=O)C2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Oc1ccc2c3c1O[C@H]1[C@H](O)C=C[C@@H]4[C@H](C2)[NH2+]CC[C@]341</t>
+          <t>[NH3+][C@@H](c1ccncc1)c1cc2c(cc1Cl)NC(=O)C2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5727,25 +5727,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>272.32</v>
+        <v>274.73</v>
       </c>
       <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
         <v>3</v>
       </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5</v>
-      </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
-        <v>66.3</v>
+        <v>69.63</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139700&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5768,7 +5768,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C35359532</t>
+          <t>C48701894</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H](c1ccncc1)c1cc2c(cc1Cl)NC(=O)C2</t>
+          <t>NC(=O)[C@@H](c1cc(Br)cs1)N1CCC[NH2+]CC1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[NH3+][C@@H](c1ccncc1)c1cc2c(cc1Cl)NC(=O)C2</t>
+          <t>NC(=O)[C@@H](c1cc(Br)cs1)N1CCC[NH2+]CC1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5795,7 +5795,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>274.73</v>
+        <v>319.25</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -5804,16 +5804,16 @@
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>69.63</v>
+        <v>62.94</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5824,7 +5824,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1383C0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5836,7 +5836,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C48701894</t>
+          <t>C33342817</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5844,12 +5844,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NC(=O)[C@@H](c1cc(Br)cs1)N1CCC[NH2+]CC1</t>
+          <t>CCN1C(C)=C(C)S/C1=c1\sc(=C2C(=O)N(c3ccccc3)C(=S)N2C)n(CC)c1=O</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NC(=O)[C@@H](c1cc(Br)cs1)N1CCC[NH2+]CC1</t>
+          <t>CCN1C(C)=C(C)S/C1=c1\sc(=C2C(=O)N(c3ccccc3)C(=S)N2C)n(CC)c1=O</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5863,25 +5863,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>319.25</v>
+        <v>472.66</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
         <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>62.94</v>
+        <v>48.79</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5892,7 +5892,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1390E0&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5904,7 +5904,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C33342817</t>
+          <t>C09420065</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CCN1C(C)=C(C)S/C1=c1\sc(=C2C(=O)N(c3ccccc3)C(=S)N2C)n(CC)c1=O</t>
+          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CCN1C(C)=C(C)S/C1=c1\sc(=C2C(=O)N(c3ccccc3)C(=S)N2C)n(CC)c1=O</t>
+          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5931,25 +5931,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>472.66</v>
+        <v>464.95</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L80" t="n">
         <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>48.79</v>
+        <v>85.27</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5960,7 +5960,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1395B0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5972,7 +5972,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C09420065</t>
+          <t>C39480363</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5980,12 +5980,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
+          <t>CC(C)S(=O)(=O)/C1=N/c2c(Cl)ncnc2N(C)c2c(F)cc(I)cc2C1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>O=C(/N=C1\S[C@H]2CS(=O)(=O)C[C@H]2N1c1ccc2c(c1)OCCO2)c1ccc(Cl)cc1</t>
+          <t>CC(C)S(=O)(=O)/C1=N/c2c(Cl)ncnc2N(C)c2c(F)cc(I)cc2C1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5999,25 +5999,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>464.95</v>
+        <v>508.74</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
         <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>85.27</v>
+        <v>75.52</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA17E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B840&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6040,7 +6040,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C39480363</t>
+          <t>C59928045</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)/C1=N/c2c(Cl)ncnc2N(C)c2c(F)cc(I)cc2C1</t>
+          <t>C=C(Br)CSc1nc2nn(-c3ccccc3)c(O)c2c2[n+]1CCCCC2</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CC(C)S(=O)(=O)/C1=N/c2c(Cl)ncnc2N(C)c2c(F)cc(I)cc2C1</t>
+          <t>C=C(Br)CSc1nc2nn(-c3ccccc3)c(O)c2c2[n+]1CCCCC2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6067,25 +6067,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>508.74</v>
+        <v>432.37</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
+        <v>4</v>
+      </c>
+      <c r="L82" t="n">
         <v>3</v>
       </c>
-      <c r="L82" t="n">
-        <v>2</v>
-      </c>
       <c r="M82" t="n">
-        <v>75.52</v>
+        <v>54.82</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13BB50&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C59928045</t>
+          <t>C63560393</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>C=C(Br)CSc1nc2nn(-c3ccccc3)c(O)c2c2[n+]1CCCCC2</t>
+          <t>CC1=C2[C@H](N=N1)C(=O)N(CCC1=c3ccccc3=[NH+]C1)[C@@H]2c1cccc(Br)c1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>C=C(Br)CSc1nc2nn(-c3ccccc3)c(O)c2c2[n+]1CCCCC2</t>
+          <t>CC1=C2[C@H](N=N1)C(=O)N(CCC1=c3ccccc3=[NH+]C1)[C@@H]2c1cccc(Br)c1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6135,25 +6135,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>432.37</v>
+        <v>436.33</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>4</v>
       </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>54.82</v>
+        <v>59</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6164,7 +6164,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1386D0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6176,7 +6176,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C63560393</t>
+          <t>C50617178</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6184,12 +6184,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](N=N1)C(=O)N(CCC1=c3ccccc3=[NH+]C1)[C@@H]2c1cccc(Br)c1</t>
+          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CC1=C2[C@H](N=N1)C(=O)N(CCC1=c3ccccc3=[NH+]C1)[C@@H]2c1cccc(Br)c1</t>
+          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6203,25 +6203,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>436.33</v>
+        <v>448.31</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" t="n">
-        <v>59</v>
+        <v>65.19</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6232,7 +6232,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138350&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6244,7 +6244,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C50617178</t>
+          <t>C59590052</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
+          <t>NS(=O)(=O)c1cc2c(cc1Cl)N[C@H](c1cc(Cl)cc(Cl)c1O)NS2(=O)=O</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Clc1cccc([C@H]2Oc3ccc(Cl)cc3C3=Nc4ncnn4[C@H](c4cccnc4)[C@H]32)c1</t>
+          <t>NS(=O)(=O)c1cc2c(cc1Cl)N[C@H](c1cc(Cl)cc(Cl)c1O)NS2(=O)=O</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6271,25 +6271,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>448.31</v>
+        <v>458.73</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
         <v>2</v>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>65.19</v>
+        <v>138.59</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6300,7 +6300,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD138820&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C59590052</t>
+          <t>C65742655</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6320,12 +6320,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cc2c(cc1Cl)N[C@H](c1cc(Cl)cc(Cl)c1O)NS2(=O)=O</t>
+          <t>O=C1OC2(c3ccc(O)cc3Oc3cc(O)ccc32)c2cc(N3C(=O)C=CC3=O)ccc21</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cc2c(cc1Cl)N[C@H](c1cc(Cl)cc(Cl)c1O)NS2(=O)=O</t>
+          <t>O=C1OC2(c3ccc(O)cc3Oc3cc(O)ccc32)c2cc(N3C(=O)C=CC3=O)ccc21</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6339,25 +6339,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>458.73</v>
+        <v>427.37</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
         <v>6</v>
       </c>
-      <c r="J86" t="n">
-        <v>2</v>
-      </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>3</v>
       </c>
-      <c r="L86" t="n">
-        <v>2</v>
-      </c>
       <c r="M86" t="n">
-        <v>138.59</v>
+        <v>113.37</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6368,7 +6368,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA2420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13AFF0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6380,7 +6380,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C65742655</t>
+          <t>C39612495</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>O=C1OC2(c3ccc(O)cc3Oc3cc(O)ccc32)c2cc(N3C(=O)C=CC3=O)ccc21</t>
+          <t>C[C@@H]1NNC(=O)C2=C1[C@@H](C)O[C@@H]2NC(=O)COC(=O)[C@@H]1CC2=C(CCCCC2)S1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>O=C1OC2(c3ccc(O)cc3Oc3cc(O)ccc32)c2cc(N3C(=O)C=CC3=O)ccc21</t>
+          <t>C[C@@H]1NNC(=O)C2=C1[C@@H](C)O[C@@H]2NC(=O)COC(=O)[C@@H]1CC2=C(CCCCC2)S1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6407,25 +6407,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>427.37</v>
+        <v>421.52</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I87" t="n">
         <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>113.37</v>
+        <v>105.76</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6436,7 +6436,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1392A0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6448,7 +6448,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C39612495</t>
+          <t>C65397323</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>C[C@@H]1NNC(=O)C2=C1[C@@H](C)O[C@@H]2NC(=O)COC(=O)[C@@H]1CC2=C(CCCCC2)S1</t>
+          <t>CC1=CN2C(=N[C@H]3CNC(=O)C[C@@H](C4=CC=CC5=C(C)C(C)=N[C@H]45)[C@H]32)C=C1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>C[C@@H]1NNC(=O)C2=C1[C@@H](C)O[C@@H]2NC(=O)COC(=O)[C@@H]1CC2=C(CCCCC2)S1</t>
+          <t>CC1=CN2C(=N[C@H]3CNC(=O)C[C@@H](C4=CC=CC5=C(C)C(C)=N[C@H]45)[C@H]32)C=C1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6475,25 +6475,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>421.52</v>
+        <v>360.46</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>105.76</v>
+        <v>57.06</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6504,7 +6504,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139690&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C65397323</t>
+          <t>C01094636</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6524,12 +6524,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CC1=CN2C(=N[C@H]3CNC(=O)C[C@@H](C4=CC=CC5=C(C)C(C)=N[C@H]45)[C@H]32)C=C1</t>
+          <t>[O-]c1c(Br)ccc(Br)c1/C=[NH+]/c1ccccn1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CC1=CN2C(=N[C@H]3CNC(=O)C[C@@H](C4=CC=CC5=C(C)C(C)=N[C@H]45)[C@H]32)C=C1</t>
+          <t>[O-]c1c(Br)ccc(Br)c1/C=[NH+]/c1ccccn1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6543,7 +6543,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>360.46</v>
+        <v>356.02</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -6552,16 +6552,16 @@
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>57.06</v>
+        <v>49.92</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6572,7 +6572,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA10E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD139C40&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>C01094636</t>
+          <t>C43722440</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[O-]c1c(Br)ccc(Br)c1/C=[NH+]/c1ccccn1</t>
+          <t>COC1(OC)CC[C@@]2(C)[C@H]3CC[C@@]4(C)CCC[C@]4(O)[C@H]3CC[C@]2(C)C1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[O-]c1c(Br)ccc(Br)c1/C=[NH+]/c1ccccn1</t>
+          <t>COC1(OC)CC[C@@]2(C)[C@H]3CC[C@@]4(C)CCC[C@]4(O)[C@H]3CC[C@]2(C)C1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6611,25 +6611,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>356.02</v>
+        <v>350.54</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
         <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>49.92</v>
+        <v>38.69</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6640,7 +6640,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA0C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD13B610&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6652,7 +6652,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>C43722440</t>
+          <t>C18183006</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COC1(OC)CC[C@@]2(C)[C@H]3CC[C@@]4(C)CCC[C@]4(O)[C@H]3CC[C@]2(C)C1</t>
+          <t>Cc1ccc(C23C[C@@H]4C[C@@H](CC(C(=O)/N=C5\NCCS5)(C4)C2)C3)cc1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>COC1(OC)CC[C@@]2(C)[C@H]3CC[C@@]4(C)CCC[C@]4(O)[C@H]3CC[C@]2(C)C1</t>
+          <t>Cc1ccc(C23C[C@@H]4C[C@@H](CC(C(=O)/N=C5\NCCS5)(C4)C2)C3)cc1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>350.54</v>
+        <v>354.52</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -6691,13 +6691,13 @@
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>38.69</v>
+        <v>41.46</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6708,7 +6708,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137DF0&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>C18183006</t>
+          <t>C01085007</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cc1ccc(C23C[C@@H]4C[C@@H](CC(C(=O)/N=C5\NCCS5)(C4)C2)C3)cc1</t>
+          <t>N#CC1=C(N)C(C#N)(C#N)[C@@H](c2ccc(Br)cc2)[C@@H]2CCCC=C12</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cc1ccc(C23C[C@@H]4C[C@@H](CC(C(=O)/N=C5\NCCS5)(C4)C2)C3)cc1</t>
+          <t>N#CC1=C(N)C(C#N)(C#N)[C@@H](c2ccc(Br)cc2)[C@@H]2CCCC=C12</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6747,25 +6747,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>354.52</v>
+        <v>379.26</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
       </c>
       <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
         <v>3</v>
       </c>
-      <c r="J92" t="n">
-        <v>2</v>
-      </c>
-      <c r="K92" t="n">
-        <v>6</v>
-      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>41.46</v>
+        <v>97.39</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -6776,7 +6776,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA1A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137D10&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6788,7 +6788,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>C01085007</t>
+          <t>C36360402</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C(C#N)(C#N)[C@@H](c2ccc(Br)cc2)[C@@H]2CCCC=C12</t>
+          <t>Cc1nn(-c2ccc(Cl)nn2)c2c1[C@H](c1ccc(F)c(F)c1F)CC(O)=N2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>N#CC1=C(N)C(C#N)(C#N)[C@@H](c2ccc(Br)cc2)[C@@H]2CCCC=C12</t>
+          <t>Cc1nn(-c2ccc(Cl)nn2)c2c1[C@H](c1ccc(F)c(F)c1F)CC(O)=N2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>379.26</v>
+        <v>393.76</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -6824,16 +6824,16 @@
         <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
+        <v>4</v>
+      </c>
+      <c r="L93" t="n">
         <v>3</v>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
       <c r="M93" t="n">
-        <v>97.39</v>
+        <v>76.19</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -6844,7 +6844,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDA3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137C30&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6856,7 +6856,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>C36360402</t>
+          <t>C43763130</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ccc(Cl)nn2)c2c1[C@H](c1ccc(F)c(F)c1F)CC(O)=N2</t>
+          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cc1nn(-c2ccc(Cl)nn2)c2c1[C@H](c1ccc(F)c(F)c1F)CC(O)=N2</t>
+          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6883,25 +6883,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>393.76</v>
+        <v>436.55</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J94" t="n">
         <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>76.19</v>
+        <v>78.91</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6912,7 +6912,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD761F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137D80&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>C43763130</t>
+          <t>C12405075</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -6932,12 +6932,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
+          <t>C1CC[C@@H]2OCCOCCOCCO[C@@H]3CCCC[C@H]3OCCOCCOCCO[C@H]2C1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>OCC[C@H]1OC12[C@@]1(CCCO1)[C@@]1(CCCO1)C1(CCCO1)[C@]1(CCCO1)[C@]21CCCO1</t>
+          <t>C1CC[C@@H]2OCCOCCOCCO[C@@H]3CCCC[C@H]3OCCOCCOCCO[C@H]2C1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -6951,25 +6951,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>436.55</v>
+        <v>460.61</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>78.91</v>
+        <v>73.84</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6980,7 +6980,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD769D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137A00&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6992,7 +6992,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>C12405075</t>
+          <t>C03843558</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -7000,12 +7000,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>C1CC[C@@H]2OCCOCCOCCO[C@@H]3CCCC[C@H]3OCCOCCOCCO[C@H]2C1</t>
+          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@H]3[C@H]4CC[C@@](C)(O)[C@]4(C)CC[C@@H]32)C1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C1CC[C@@H]2OCCOCCOCCO[C@@H]3CCCC[C@H]3OCCOCCOCCO[C@H]2C1</t>
+          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@@H]3[C@@H]2CC[C@]2(C)[C@@H]3CC[C@@]2(C)O)C1</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -7019,25 +7019,25 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>460.61</v>
+        <v>330.51</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>73.84</v>
+        <v>40.46</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -7048,7 +7048,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137CA0&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7060,7 +7060,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>C03843558</t>
+          <t>C43761873</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -7068,12 +7068,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@H]3[C@H]4CC[C@@](C)(O)[C@]4(C)CC[C@@H]32)C1</t>
+          <t>O[C@]1([C@@]2(O)C[C@@H]3CC[C@H]4CC[C@H]2[C@@H]43)C[C@@H]2CC[C@H]3CC[C@H]1[C@@H]32</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C#C[C@]1(O)CC[C@@]2(C)[C@@H](CC[C@@H]3[C@@H]2CC[C@]2(C)[C@@H]3CC[C@@]2(C)O)C1</t>
+          <t>O[C@]1([C@@]2(O)C[C@@H]3CC[C@H]4CC[C@H]2[C@@H]43)C[C@@H]2CC[C@H]3CC[C@H]1[C@@H]32</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -7087,7 +7087,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>330.51</v>
+        <v>302.46</v>
       </c>
       <c r="H97" t="n">
         <v>2</v>
@@ -7096,10 +7096,10 @@
         <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -7116,7 +7116,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76F80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137B50&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>C43761873</t>
+          <t>C43666545</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>O[C@]1([C@@]2(O)C[C@@H]3CC[C@H]4CC[C@H]2[C@@H]43)C[C@@H]2CC[C@H]3CC[C@H]1[C@@H]32</t>
+          <t>Nc1c(I)cnn1Cc1ccc(Cl)c(Cl)c1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>O[C@]1([C@@]2(O)C[C@@H]3CC[C@H]4CC[C@H]2[C@@H]43)C[C@@H]2CC[C@H]3CC[C@H]1[C@@H]32</t>
+          <t>Nc1c(I)cnn1Cc1ccc(Cl)c(Cl)c1</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -7155,25 +7155,25 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>302.46</v>
+        <v>368</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>40.46</v>
+        <v>43.84</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137BC0&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7196,7 +7196,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>C43666545</t>
+          <t>C34132147</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -7204,12 +7204,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nc1c(I)cnn1Cc1ccc(Cl)c(Cl)c1</t>
+          <t>Cc1cc2c(c([S-])n1)C(=O)O/C2=C\c1ccc(Br)o1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Nc1c(I)cnn1Cc1ccc(Cl)c(Cl)c1</t>
+          <t>Cc1cc2c(c([S-])n1)C(=O)O/C2=C\c1ccc(Br)o1</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -7223,25 +7223,25 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>368</v>
+        <v>337.17</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99" t="n">
         <v>2</v>
       </c>
       <c r="M99" t="n">
-        <v>43.84</v>
+        <v>52.33</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -7252,7 +7252,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD771B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137ED0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7264,7 +7264,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C34132147</t>
+          <t>C37020217</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -7272,12 +7272,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Cc1cc2c(c([S-])n1)C(=O)O/C2=C\c1ccc(Br)o1</t>
+          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Cc1cc2c(c([S-])n1)C(=O)O/C2=C\c1ccc(Br)o1</t>
+          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -7291,25 +7291,25 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>337.17</v>
+        <v>386.64</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
-        <v>52.33</v>
+        <v>65.97</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -7320,7 +7320,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137F40&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>C37020217</t>
+          <t>C28286503</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -7340,12 +7340,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
+          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[NH3+]CCCCCC(=O)Nc1cc(Cl)cc(Br)c1OC(F)F</t>
+          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -7359,25 +7359,25 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>386.64</v>
+        <v>385.54</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>65.97</v>
+        <v>70.12</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -7388,7 +7388,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76D50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137A70&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7400,7 +7400,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>C28286503</t>
+          <t>C31888135</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -7408,12 +7408,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
+          <t>ClCCc1noc2c3c(ccc12)OCO3</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cc1cc(C)n(C2=Nc3sc4c(c3[C@H]([NH2+]C[C@@H]3CCCO3)[N-]2)CCCC4)n1</t>
+          <t>ClCCc1noc2c3c(ccc12)OCO3</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -7427,25 +7427,25 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>385.54</v>
+        <v>225.63</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
         <v>3</v>
       </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
       <c r="L102" t="n">
         <v>2</v>
       </c>
       <c r="M102" t="n">
-        <v>70.12</v>
+        <v>44.49</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7456,7 +7456,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD137E60&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7468,7 +7468,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>C31888135</t>
+          <t>C44548985</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ClCCc1noc2c3c(ccc12)OCO3</t>
+          <t>CSc1nnc(-c2cncc(Cl)n2)s1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ClCCc1noc2c3c(ccc12)OCO3</t>
+          <t>CSc1nnc(-c2cncc(Cl)n2)s1</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -7495,25 +7495,25 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>225.63</v>
+        <v>244.73</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J103" t="n">
         <v>2</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
         <v>2</v>
       </c>
       <c r="M103" t="n">
-        <v>44.49</v>
+        <v>51.56</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7524,7 +7524,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F760&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>C44548985</t>
+          <t>C17376146</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CSc1nnc(-c2cncc(Cl)n2)s1</t>
+          <t>C/C(CCCCCCCC/C(C)=N\NC(N)=S)=N/NC(N)=S</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CSc1nnc(-c2cncc(Cl)n2)s1</t>
+          <t>C/C(CCCCCCCC/C(C)=N\NC(N)=S)=N/NC(N)=S</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7563,25 +7563,25 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>244.73</v>
+        <v>344.55</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>51.56</v>
+        <v>100.82</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7592,7 +7592,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E420&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7604,7 +7604,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>C17376146</t>
+          <t>C04403687</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -7612,12 +7612,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>C/C(CCCCCCCC/C(C)=N\NC(N)=S)=N/NC(N)=S</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>C/C(CCCCCCCC/C(C)=N\NC(N)=S)=N/NC(N)=S</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7631,25 +7631,25 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>344.55</v>
+        <v>418.45</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I105" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J105" t="n">
         <v>11</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M105" t="n">
-        <v>100.82</v>
+        <v>170.16</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7660,7 +7660,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD76DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E570&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7672,7 +7672,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C04403687</t>
+          <t>C04533779</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -7680,12 +7680,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
+          <t>C[C@H](NC(=O)[C@@H](C)NC(=O)[C@@H](C)[NH3+])C(=O)Nc1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@@H](O)[C@H](O)[C@H](O)C(/C=N/Nc1ccccc1)=N/Nc1ccccc1</t>
+          <t>C[C@H](NC(=O)[C@@H](C)NC(=O)[C@@H](C)[NH3+])C(=O)Nc1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -7699,25 +7699,25 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>418.45</v>
+        <v>352.37</v>
       </c>
       <c r="H106" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J106" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>170.16</v>
+        <v>158.08</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7728,7 +7728,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD75C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EF10&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>C04533779</t>
+          <t>C16958163</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>C[C@H](NC(=O)[C@@H](C)NC(=O)[C@@H](C)[NH3+])C(=O)Nc1ccc([N+](=O)[O-])cc1</t>
+          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>C[C@H](NC(=O)[C@@H](C)NC(=O)[C@@H](C)[NH3+])C(=O)Nc1ccc([N+](=O)[O-])cc1</t>
+          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -7767,25 +7767,25 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>352.37</v>
+        <v>395.43</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I107" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>158.08</v>
+        <v>169.97</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -7796,7 +7796,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CD77760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E880&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7808,7 +7808,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>C16958163</t>
+          <t>C20436810</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -7816,12 +7816,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
+          <t>O[C@H](C[NH2+]C1CCCCC1)CN1CCN(C[C@H](O)C[NH2+]C2CCCCC2)CC1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NNC(=S)N/N=C(/C(=O)Nc1cccc(O)c1)C1C(=O)NC(=S)NC1=O</t>
+          <t>O[C@H](C[NH2+]C1CCCCC1)CN1CCN(C[C@H](O)C[NH2+]C2CCCCC2)CC1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7835,25 +7835,25 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>395.43</v>
+        <v>398.64</v>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J108" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>169.97</v>
+        <v>80.16</v>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
@@ -7864,7 +7864,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EA40&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>C20436810</t>
+          <t>C04886756</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -7884,12 +7884,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>O[C@H](C[NH2+]C1CCCCC1)CN1CCN(C[C@H](O)C[NH2+]C2CCCCC2)CC1</t>
+          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>O[C@H](C[NH2+]C1CCCCC1)CN1CCN(C[C@H](O)C[NH2+]C2CCCCC2)CC1</t>
+          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -7903,25 +7903,25 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>398.64</v>
+        <v>506.58</v>
       </c>
       <c r="H109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J109" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K109" t="n">
+        <v>6</v>
+      </c>
+      <c r="L109" t="n">
         <v>3</v>
       </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
       <c r="M109" t="n">
-        <v>80.16</v>
+        <v>80.05</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -7932,7 +7932,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAFDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EB90&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -7944,7 +7944,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>C04886756</t>
+          <t>C09915768</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
+          <t>C[C@]1(Oc2c[nH]c3ccc(Br)c(Cl)c23)O[C@@](C)(CO)[C@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1OC)[C@](O)(Cc1ccccc1)O[C@@H]2[C@H]1c2c(cc3c(c2OC)OCO3)CC[NH+]1C</t>
+          <t>C[C@@]1(CO)O[C@](C)(Oc2c[nH]c3ccc(Br)c(Cl)c23)[C@](C)(O)[C@](C)(O)[C@@]1(C)O</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -7971,25 +7971,25 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>506.58</v>
+        <v>478.77</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I110" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M110" t="n">
-        <v>80.05</v>
+        <v>115.17</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -8000,7 +8000,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EC70&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8012,7 +8012,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C09915768</t>
+          <t>C22061225</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8020,12 +8020,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>C[C@]1(Oc2c[nH]c3ccc(Br)c(Cl)c23)O[C@@](C)(CO)[C@](C)(O)[C@@](C)(O)[C@@]1(C)O</t>
+          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>C[C@@]1(CO)O[C@](C)(Oc2c[nH]c3ccc(Br)c(Cl)c23)[C@](C)(O)[C@](C)(O)[C@@]1(C)O</t>
+          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8039,25 +8039,25 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>478.77</v>
+        <v>451.58</v>
       </c>
       <c r="H111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J111" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>115.17</v>
+        <v>127.12</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8068,7 +8068,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAFCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F220&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C22061225</t>
+          <t>C55161959</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
+          <t>Cc1c(C)c(S(=O)(=O)N/[NH+]=C/NCCC[C@@H]([NH3+])C(=O)[O-])c(C)c2c1OC(C)(C)C2</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>C[C@H](O)C(C)(C)C(=O)O[C@H]1C[C@@H](C)C=C2C=C[C@H](C)[C@H](CC[C@@H](O)C[C@@H](O)CC(=O)[O-])[C@H]21</t>
+          <t>Cc1c(C)c(S(=O)(=O)N/[NH+]=C/NCCC[C@@H]([NH3+])C(=O)[O-])c(C)c2c1OC(C)(C)C2</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8107,25 +8107,25 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>451.58</v>
+        <v>427.55</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J112" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K112" t="n">
         <v>2</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>127.12</v>
+        <v>149.17</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDACC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F450&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C55161959</t>
+          <t>C40823323</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cc1c(C)c(S(=O)(=O)N/[NH+]=C/NCCC[C@@H]([NH3+])C(=O)[O-])c(C)c2c1OC(C)(C)C2</t>
+          <t>Cc1c(C(=O)NNC(C)(C)C)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Cc1c(C)c(S(=O)(=O)N/[NH+]=C/NCCC[C@@H]([NH3+])C(=O)[O-])c(C)c2c1OC(C)(C)C2</t>
+          <t>Cc1c(C(=O)NNC(C)(C)C)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8175,16 +8175,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>427.55</v>
+        <v>473.37</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K113" t="n">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="M113" t="n">
-        <v>149.17</v>
+        <v>102.05</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -8204,7 +8204,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FAE0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C40823323</t>
+          <t>C41540708</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8224,12 +8224,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NNC(C)(C)C)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
+          <t>COc1ccc([C@H](C#N)Cc2c(F)cccc2Cl)cc1F</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NNC(C)(C)C)oc2c1/C(=N/N=C(\[O-])C(F)(F)C(F)(F)C(F)(F)F)CCC2</t>
+          <t>COc1ccc([C@H](C#N)Cc2c(F)cccc2Cl)cc1F</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8243,25 +8243,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>473.37</v>
+        <v>307.73</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K114" t="n">
         <v>2</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M114" t="n">
-        <v>102.05</v>
+        <v>33.02</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FC30&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8284,7 +8284,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C41540708</t>
+          <t>C34726704</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8292,12 +8292,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H](C#N)Cc2c(F)cccc2Cl)cc1F</t>
+          <t>C=C(C)Cn1c(=O)[nH]c2sc3c(c2c1=O)C(CC)=C(C)C3</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>COc1ccc([C@H](C#N)Cc2c(F)cccc2Cl)cc1F</t>
+          <t>C=C(C)Cn1c(=O)[nH]c2sc3c(c2c1=O)C(CC)=C(C)C3</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8311,25 +8311,25 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>307.73</v>
+        <v>302.4</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L115" t="n">
         <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>33.02</v>
+        <v>54.86</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -8340,7 +8340,7 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F920&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8352,7 +8352,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C34726704</t>
+          <t>C06898926</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>C=C(C)Cn1c(=O)[nH]c2sc3c(c2c1=O)C(CC)=C(C)C3</t>
+          <t>[H]/N=C(/N=C(\[O-])[C@H](Sc1ccccc1)c1ccccc1)Nc1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>C=C(C)Cn1c(=O)[nH]c2sc3c(c2c1=O)C(CC)=C(C)C3</t>
+          <t>[H]/N=C(/N=C(\[O-])[C@H](Sc1ccccc1)c1ccccc1)Nc1nc2ccccc2o1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8379,25 +8379,25 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>302.4</v>
+        <v>401.47</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K116" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M116" t="n">
-        <v>54.86</v>
+        <v>97.33</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -8408,7 +8408,7 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E490&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8420,7 +8420,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C06898926</t>
+          <t>C05600366</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8428,12 +8428,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[H]/N=C(/N=C(\[O-])[C@H](Sc1ccccc1)c1ccccc1)Nc1nc2ccccc2o1</t>
+          <t>OC[C@H](O)COCCCCCCCCCCCCC[C@H]1C=CCC1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[H]/N=C(/N=C(\[O-])[C@H](Sc1ccccc1)c1ccccc1)Nc1nc2ccccc2o1</t>
+          <t>OC[C@H](O)COCCCCCCCCCCCCC[C@H]1C=CCC1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8447,25 +8447,25 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>401.47</v>
+        <v>340.55</v>
       </c>
       <c r="H117" t="n">
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>97.33</v>
+        <v>49.69</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -8476,7 +8476,7 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E500&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C05600366</t>
+          <t>C13733916</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>OC[C@H](O)COCCCCCCCCCCCCC[C@H]1C=CCC1</t>
+          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>OC[C@H](O)COCCCCCCCCCCCCC[C@H]1C=CCC1</t>
+          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8515,25 +8515,25 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>340.55</v>
+        <v>397.63</v>
       </c>
       <c r="H118" t="n">
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>49.69</v>
+        <v>25.7</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -8544,7 +8544,7 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F990&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8556,7 +8556,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>C13733916</t>
+          <t>C64219887</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
+          <t>CC/C=C\C/C=C\C/C=C\C/C=C\C/C=C\C/C=C/CCC(=O)[O-]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CCCC[NH+](CCCC)CCCNCc1cccc(OCc2ccc(C)cc2)c1</t>
+          <t>CC/C=C\C/C=C\C/C=C\C/C=C\C/C=C\C/C=C/CCC(=O)[O-]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8583,25 +8583,25 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>397.63</v>
+        <v>327.49</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>25.7</v>
+        <v>40.13</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -8612,7 +8612,7 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E6C0&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8624,7 +8624,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>C64219887</t>
+          <t>C63209272</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8632,12 +8632,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CC/C=C\C/C=C\C/C=C\C/C=C\C/C=C\C/C=C/CCC(=O)[O-]</t>
+          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CC/C=C\C/C=C\C/C=C\C/C=C\C/C=C\C/C=C/CCC(=O)[O-]</t>
+          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8651,25 +8651,25 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>327.49</v>
+        <v>319.26</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>40.13</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EEA0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>C63209272</t>
+          <t>C41058312</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8700,12 +8700,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
+          <t>NC(=O)[C@H]1C[C@H](O)CN1C(=O)CC12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Nc1ccc(F)cc1[N-]S(=O)(=O)c1c(F)cc(F)cc1F</t>
+          <t>NC(=O)[C@H]1C[C@H](O)CN1C(=O)CC12CC3CC(CC(C3)C1)C2</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>319.26</v>
+        <v>306.41</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -8731,13 +8731,13 @@
         <v>3</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>74.26000000000001</v>
+        <v>83.63</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -8748,7 +8748,7 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EF80&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -8760,7 +8760,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>C41058312</t>
+          <t>C34757879</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8768,12 +8768,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1C[C@H](O)CN1C(=O)CC12CC3CC(CC(C3)C1)C2</t>
+          <t>O=C(CSc1nc(N2CC[NH+](CC(=O)N3CC3)CC2)c2c3c(sc2n1)CCC3)N1CCCCC1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>NC(=O)[C@H]1C[C@H](O)CN1C(=O)CC12CC3CC(CC(C3)C1)C2</t>
+          <t>O=C(CSc1nc(N2CC[NH+](CC(=O)N3CC3)CC2)c2c3c(sc2n1)CCC3)N1CCCCC1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8787,25 +8787,25 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>306.41</v>
+        <v>501.7</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K122" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M122" t="n">
-        <v>83.63</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -8816,7 +8816,7 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E110&gt;</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -8828,7 +8828,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C34757879</t>
+          <t>C39469744</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8836,12 +8836,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>O=C(CSc1nc(N2CC[NH+](CC(=O)N3CC3)CC2)c2c3c(sc2n1)CCC3)N1CCCCC1</t>
+          <t>O=[P@@]1(S(=O)(=O)Oc2ccccc2)N[NH+]2C[C@@H]3C=C(Cl)C(Cl)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>O=C(CSc1nc(N2CC[NH+](CC(=O)N3CC3)CC2)c2c3c(sc2n1)CCC3)N1CCCCC1</t>
+          <t>O=[P@@]1(S(=O)(=O)Oc2ccccc2)N[NH+]2C[C@@H]3C=C(Cl)C(Cl)=C[C@@H]3C[C@@H]2CO1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8855,25 +8855,25 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>501.7</v>
+        <v>452.28</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
         <v>6</v>
       </c>
       <c r="J123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K123" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M123" t="n">
-        <v>73.84999999999999</v>
+        <v>86.14</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -8884,7 +8884,7 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E7A0&gt;</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -8896,7 +8896,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C39469744</t>
+          <t>C44925149</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>O=[P@@]1(S(=O)(=O)Oc2ccccc2)N[NH+]2C[C@@H]3C=C(Cl)C(Cl)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>C[C@H](Nc1ncc(Br)cc1N)c1nnn[n-]1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>O=[P@@]1(S(=O)(=O)Oc2ccccc2)N[NH+]2C[C@@H]3C=C(Cl)C(Cl)=C[C@@H]3C[C@@H]2CO1</t>
+          <t>C[C@H](Nc1ncc(Br)cc1N)c1nnn[n-]1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8923,25 +8923,25 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>452.28</v>
+        <v>283.11</v>
       </c>
       <c r="H124" t="n">
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J124" t="n">
         <v>3</v>
       </c>
       <c r="K124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>86.14</v>
+        <v>103.71</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -8952,7 +8952,7 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F290&gt;</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -8964,7 +8964,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C44925149</t>
+          <t>C40778405</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -8972,12 +8972,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>C[C@H](Nc1ncc(Br)cc1N)c1nnn[n-]1</t>
+          <t>CN(c1ncnc(Nc2cc(Cl)ccc2Cl)c1N)C1CC[NH+](C)CC1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>C[C@H](Nc1ncc(Br)cc1N)c1nnn[n-]1</t>
+          <t>CN(c1ncnc(Nc2cc(Cl)ccc2Cl)c1N)C1CC[NH+](C)CC1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -8991,25 +8991,25 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>283.11</v>
+        <v>382.32</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J125" t="n">
+        <v>4</v>
+      </c>
+      <c r="K125" t="n">
         <v>3</v>
       </c>
-      <c r="K125" t="n">
-        <v>2</v>
-      </c>
       <c r="L125" t="n">
         <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>103.71</v>
+        <v>71.51000000000001</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -9020,7 +9020,7 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F370&gt;</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -9032,7 +9032,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>C40778405</t>
+          <t>C61595211</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>CN(c1ncnc(Nc2cc(Cl)ccc2Cl)c1N)C1CC[NH+](C)CC1</t>
+          <t>CC(C)n1c(S[C@@H](c2ccc(Br)s2)[C@H](C)[NH3+])n[nH]c1=O</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CN(c1ncnc(Nc2cc(Cl)ccc2Cl)c1N)C1CC[NH+](C)CC1</t>
+          <t>CC(C)n1c(S[C@@H](c2ccc(Br)s2)[C@H](C)[NH3+])n[nH]c1=O</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9059,25 +9059,25 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>382.32</v>
+        <v>378.34</v>
       </c>
       <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
         <v>3</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J126" t="n">
         <v>5</v>
       </c>
-      <c r="J126" t="n">
-        <v>4</v>
-      </c>
       <c r="K126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
         <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>71.51000000000001</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -9088,7 +9088,7 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F530&gt;</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -9100,7 +9100,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C61595211</t>
+          <t>C37991378</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9108,12 +9108,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CC(C)n1c(S[C@@H](c2ccc(Br)s2)[C@H](C)[NH3+])n[nH]c1=O</t>
+          <t>COc1c(Br)cc(C[NH2+]Cc2c[nH]nc2C)cc1Br</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CC(C)n1c(S[C@@H](c2ccc(Br)s2)[C@H](C)[NH3+])n[nH]c1=O</t>
+          <t>COc1c(Br)cc(C[NH2+]Cc2c[nH]nc2C)cc1Br</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -9127,13 +9127,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>378.34</v>
+        <v>390.1</v>
       </c>
       <c r="H127" t="n">
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>5</v>
@@ -9145,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>78.31999999999999</v>
+        <v>54.52</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -9156,7 +9156,7 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F610&gt;</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -9168,7 +9168,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>C37991378</t>
+          <t>C43510589</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>COc1c(Br)cc(C[NH2+]Cc2c[nH]nc2C)cc1Br</t>
+          <t>C[NH2+][C@H]1CCC2=CC3=CC[C@@]4(C)[C@@H]([C@H](C)N(C)C(C)=O)[C@H](O)C[C@]4(C)[C@@H]3CC[C@H]2C1(C)C</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>COc1c(Br)cc(C[NH2+]Cc2c[nH]nc2C)cc1Br</t>
+          <t>C[NH2+][C@H]1CCC2=CC3=CC[C@@]4(C)[C@@H]([C@H](C)N(C)C(C)=O)[C@H](O)C[C@]4(C)[C@@H]3CC[C@H]2C1(C)C</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -9195,7 +9195,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>390.1</v>
+        <v>443.7</v>
       </c>
       <c r="H128" t="n">
         <v>2</v>
@@ -9204,16 +9204,16 @@
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>54.52</v>
+        <v>57.15</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -9224,7 +9224,7 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FED0&gt;</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -9236,7 +9236,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>C43510589</t>
+          <t>C45169041</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9244,12 +9244,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C[NH2+][C@H]1CCC2=CC3=CC[C@@]4(C)[C@@H]([C@H](C)N(C)C(C)=O)[C@H](O)C[C@]4(C)[C@@H]3CC[C@H]2C1(C)C</t>
+          <t>Fc1ccc2nc(-c3cccc(-c4cccc(CN5CCN(c6cc[nH+]cc6)CC5)c4)c3)[nH]c2c1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>C[NH2+][C@H]1CCC2=CC3=CC[C@@]4(C)[C@@H]([C@H](C)N(C)C(C)=O)[C@H](O)C[C@]4(C)[C@@H]3CC[C@H]2C1(C)C</t>
+          <t>Fc1ccc2nc(-c3cccc(-c4cccc(CN5CCN(c6cc[nH+]cc6)CC5)c4)c3)[nH]c2c1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -9263,25 +9263,25 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>443.7</v>
+        <v>464.57</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K129" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M129" t="n">
-        <v>57.15</v>
+        <v>49.3</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -9292,7 +9292,7 @@
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E8F0&gt;</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C45169041</t>
+          <t>C39464764</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9312,12 +9312,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Fc1ccc2nc(-c3cccc(-c4cccc(CN5CCN(c6cc[nH+]cc6)CC5)c4)c3)[nH]c2c1</t>
+          <t>CO[P@@]1(=O)NN2CCc3cc(I)c(I)cc3[C@@H]2CO1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Fc1ccc2nc(-c3cccc(-c4cccc(CN5CCN(c6cc[nH+]cc6)CC5)c4)c3)[nH]c2c1</t>
+          <t>CO[P@@]1(=O)NN2CCc3cc(I)c(I)cc3[C@@H]2CO1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -9331,25 +9331,25 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>464.57</v>
+        <v>506.02</v>
       </c>
       <c r="H130" t="n">
         <v>1</v>
       </c>
       <c r="I130" t="n">
+        <v>5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
         <v>3</v>
       </c>
-      <c r="J130" t="n">
-        <v>5</v>
-      </c>
-      <c r="K130" t="n">
-        <v>6</v>
-      </c>
       <c r="L130" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>49.3</v>
+        <v>50.8</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -9360,7 +9360,7 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F5A0&gt;</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
@@ -9372,7 +9372,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>C39464764</t>
+          <t>C59463240</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9380,12 +9380,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CO[P@@]1(=O)NN2CCc3cc(I)c(I)cc3[C@@H]2CO1</t>
+          <t>O=C1[C@@H]2[C@H](C(=O)N1/N=C/c1cc(Br)cc(Br)c1O)[C@H]1C=C[C@@H]2C12CC2</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CO[P@@]1(=O)NN2CCc3cc(I)c(I)cc3[C@@H]2CO1</t>
+          <t>O=C1[C@H]2[C@@H]3C=C[C@H]([C@H]2C(=O)N1/N=C/c1cc(Br)cc(Br)c1O)C31CC1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -9399,25 +9399,25 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>506.02</v>
+        <v>466.13</v>
       </c>
       <c r="H131" t="n">
         <v>1</v>
       </c>
       <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
+      <c r="K131" t="n">
         <v>5</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>3</v>
-      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
       <c r="M131" t="n">
-        <v>50.8</v>
+        <v>69.97</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -9428,7 +9428,7 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FA00&gt;</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -9440,7 +9440,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>C59463240</t>
+          <t>C63528803</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9448,12 +9448,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>O=C1[C@@H]2[C@H](C(=O)N1/N=C/c1cc(Br)cc(Br)c1O)[C@H]1C=C[C@@H]2C12CC2</t>
+          <t>Cc1ccc(C2=C[C@H](c3nc4c5sc6nc(C)cc(C)c6c5ncn4n3)N=N2)c(C)c1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>O=C1[C@H]2[C@@H]3C=C[C@H]([C@H]2C(=O)N1/N=C/c1cc(Br)cc(Br)c1O)C31CC1</t>
+          <t>Cc1ccc(C2=C[C@H](c3nc4c5sc6nc(C)cc(C)c6c5ncn4n3)N=N2)c(C)c1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9467,25 +9467,25 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>466.13</v>
+        <v>425.52</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J132" t="n">
         <v>2</v>
       </c>
       <c r="K132" t="n">
+        <v>6</v>
+      </c>
+      <c r="L132" t="n">
         <v>5</v>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
       <c r="M132" t="n">
-        <v>69.97</v>
+        <v>80.69</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -9496,7 +9496,7 @@
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FD10&gt;</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -9508,7 +9508,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>C63528803</t>
+          <t>C09088227</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9516,12 +9516,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2=C[C@H](c3nc4c5sc6nc(C)cc(C)c6c5ncn4n3)N=N2)c(C)c1</t>
+          <t>O=C1NC(=O)[C@@]2(Cc3c([nH+]c4ccccn4c3=O)N3CCCCC[C@H]32)C(=O)N1C1CCCCC1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2=C[C@H](c3nc4c5sc6nc(C)cc(C)c6c5ncn4n3)N=N2)c(C)c1</t>
+          <t>O=C1NC(=O)[C@@]2(Cc3c([nH+]c4ccccn4c3=O)N3CCCCC[C@H]32)C(=O)N1C1CCCCC1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9535,25 +9535,25 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>425.52</v>
+        <v>464.55</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>6</v>
       </c>
       <c r="L133" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>80.69</v>
+        <v>105.34</v>
       </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
@@ -9564,7 +9564,7 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E9D0&gt;</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
@@ -9576,7 +9576,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>C09088227</t>
+          <t>C09008580</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9584,12 +9584,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)[C@@]2(Cc3c([nH+]c4ccccn4c3=O)N3CCCCC[C@H]32)C(=O)N1C1CCCCC1</t>
+          <t>COc1ccc([C@]2(CC[NH2+]C[C@H]3C(=O)O[C@@H]4C[C@@]5(C)CCCC(C)=C5C[C@@H]43)CCOC(C)(C)C2)cc1</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)[C@@]2(Cc3c([nH+]c4ccccn4c3=O)N3CCCCC[C@H]32)C(=O)N1C1CCCCC1</t>
+          <t>COc1ccc([C@]2(CC[NH2+]C[C@H]3C(=O)O[C@@H]4C[C@@]5(C)CCCC(C)=C5C[C@H]34)CCOC(C)(C)C2)cc1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9603,25 +9603,25 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>464.55</v>
+        <v>496.71</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
       </c>
       <c r="I134" t="n">
+        <v>4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>7</v>
+      </c>
+      <c r="K134" t="n">
         <v>5</v>
       </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>6</v>
-      </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134" t="n">
-        <v>105.34</v>
+        <v>61.37</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -9632,7 +9632,7 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E730&gt;</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
@@ -9644,7 +9644,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>C09008580</t>
+          <t>C15859678</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9652,12 +9652,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COc1ccc([C@]2(CC[NH2+]C[C@H]3C(=O)O[C@@H]4C[C@@]5(C)CCCC(C)=C5C[C@@H]43)CCOC(C)(C)C2)cc1</t>
+          <t>O=C(NC[C@@H](c1ccco1)[NH+]1CCCC1)c1cc(-c2ccc3c(c2)CCCC3)on1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>COc1ccc([C@]2(CC[NH2+]C[C@H]3C(=O)O[C@@H]4C[C@@]5(C)CCCC(C)=C5C[C@H]34)CCOC(C)(C)C2)cc1</t>
+          <t>O=C(NC[C@@H](c1ccco1)[NH+]1CCCC1)c1cc(-c2ccc3c(c2)CCCC3)on1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9671,25 +9671,25 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>496.71</v>
+        <v>406.51</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K135" t="n">
         <v>5</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M135" t="n">
-        <v>61.37</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
@@ -9700,7 +9700,7 @@
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E650&gt;</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -9712,7 +9712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>C15859678</t>
+          <t>C01398553</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -9720,12 +9720,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>O=C(NC[C@@H](c1ccco1)[NH+]1CCCC1)c1cc(-c2ccc3c(c2)CCCC3)on1</t>
+          <t>CSc1nc(N2CCOCC2)cc(C(F)(F)F)n1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>O=C(NC[C@@H](c1ccco1)[NH+]1CCCC1)c1cc(-c2ccc3c(c2)CCCC3)on1</t>
+          <t>CSc1nc(N2CCOCC2)cc(C(F)(F)F)n1</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9739,25 +9739,25 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>406.51</v>
+        <v>279.29</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J136" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M136" t="n">
-        <v>72.70999999999999</v>
+        <v>38.25</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F140&gt;</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
@@ -9780,7 +9780,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>C01398553</t>
+          <t>C40366101</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -9788,12 +9788,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CSc1nc(N2CCOCC2)cc(C(F)(F)F)n1</t>
+          <t>CCC(C#N)(CC)N1C(=O)CC2(CCCCCC2)C1=O</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>CSc1nc(N2CCOCC2)cc(C(F)(F)F)n1</t>
+          <t>CCC(C#N)(CC)N1C(=O)CC2(CCCCCC2)C1=O</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -9807,25 +9807,25 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>279.29</v>
+        <v>276.38</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K137" t="n">
         <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M137" t="n">
-        <v>38.25</v>
+        <v>61.17</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -9836,7 +9836,7 @@
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDACEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16ECE0&gt;</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
@@ -9848,7 +9848,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>C40366101</t>
+          <t>C62954530</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CCC(C#N)(CC)N1C(=O)CC2(CCCCCC2)C1=O</t>
+          <t>CCC1(C)CCN(c2nc3sccn3c2C=O)CC1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CCC(C#N)(CC)N1C(=O)CC2(CCCCCC2)C1=O</t>
+          <t>CCC1(C)CCN(c2nc3sccn3c2C=O)CC1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -9875,7 +9875,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>276.38</v>
+        <v>277.39</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>3</v>
       </c>
       <c r="K138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>61.17</v>
+        <v>37.61</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -9904,7 +9904,7 @@
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EDC0&gt;</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -9916,7 +9916,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>C62954530</t>
+          <t>C27193399</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -9924,12 +9924,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>CCC1(C)CCN(c2nc3sccn3c2C=O)CC1</t>
+          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CCC1(C)CCN(c2nc3sccn3c2C=O)CC1</t>
+          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -9943,25 +9943,25 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>277.39</v>
+        <v>377.38</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M139" t="n">
-        <v>37.61</v>
+        <v>146.9</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -9972,7 +9972,7 @@
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F3E0&gt;</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -9984,7 +9984,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>C27193399</t>
+          <t>C65253373</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -9992,12 +9992,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
+          <t>CCCCNC(=O)[C@@H]1CCC[NH+]([C@H](C)C(=O)NC(=O)NCC(F)(F)F)C1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>N/C(=N\O)c1ccc2nc(-c3ccc(-c4ccc(C(=[NH2+])NO)cc4)o3)cn2c1</t>
+          <t>CCCCNC(=O)[C@@H]1CCC[NH+]([C@H](C)C(=O)NC(=O)NCC(F)(F)F)C1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -10011,25 +10011,25 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>377.38</v>
+        <v>381.42</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>146.9</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -10040,7 +10040,7 @@
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F6F0&gt;</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
@@ -10052,7 +10052,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>C65253373</t>
+          <t>C66176932</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H]1CCC[NH+]([C@H](C)C(=O)NC(=O)NCC(F)(F)F)C1</t>
+          <t>O=C(NC1CCN(C(=O)C2CC2)CC1)N1CC[C@H]([NH+]2CCCC2)C1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CCCCNC(=O)[C@@H]1CCC[NH+]([C@H](C)C(=O)NC(=O)NCC(F)(F)F)C1</t>
+          <t>O=C(NC1CCN(C(=O)C2CC2)CC1)N1CC[C@H]([NH+]2CCCC2)C1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -10079,25 +10079,25 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>381.42</v>
+        <v>335.47</v>
       </c>
       <c r="H141" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
         <v>3</v>
       </c>
-      <c r="J141" t="n">
-        <v>7</v>
-      </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>91.73999999999999</v>
+        <v>57.09</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -10108,7 +10108,7 @@
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F840&gt;</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -10120,7 +10120,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>C66176932</t>
+          <t>C13402906</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10128,12 +10128,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>O=C(NC1CCN(C(=O)C2CC2)CC1)N1CC[C@H]([NH+]2CCCC2)C1</t>
+          <t>NC(=O)N/N=C/C(=O)c1ccc(C(=O)/C=N/NC(N)=O)cc1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>O=C(NC1CCN(C(=O)C2CC2)CC1)N1CC[C@H]([NH+]2CCCC2)C1</t>
+          <t>NC(=O)N/N=C/C(=O)c1ccc(C(=O)/C=N/NC(N)=O)cc1</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -10143,29 +10143,29 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>335.47</v>
+        <v>304.27</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M142" t="n">
-        <v>57.09</v>
+        <v>169.1</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F8B0&gt;</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -10188,7 +10188,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>C13402906</t>
+          <t>C66331740</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10196,12 +10196,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>NC(=O)N/N=C/C(=O)c1ccc(C(=O)/C=N/NC(N)=O)cc1</t>
+          <t>C[C@@]1(C(=O)NN)CC=CC=C1C(=S)OC(=O)/C=C(\[O-])OC(=S)C1=CC=CC[C@@]1(C)C(=O)NN</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>NC(=O)N/N=C/C(=O)c1ccc(C(=O)/C=N/NC(N)=O)cc1</t>
+          <t>C[C@@]1(C(=O)NN)CC=CC=C1C(=S)OC(=O)/C=C(\[O-])OC(=S)C1=CC=CC[C@@]1(C)C(=O)NN</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -10215,25 +10215,25 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>304.27</v>
+        <v>491.57</v>
       </c>
       <c r="H143" t="n">
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J143" t="n">
         <v>6</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>169.1</v>
+        <v>168.83</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -10244,7 +10244,7 @@
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FBC0&gt;</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
@@ -10256,7 +10256,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>C66331740</t>
+          <t>C37245946</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)NN)CC=CC=C1C(=S)OC(=O)/C=C(\[O-])OC(=S)C1=CC=CC[C@@]1(C)C(=O)NN</t>
+          <t>C[C@H](CCC(=O)[O-])[C@@H]1CC[C@H]2[C@H]3CC[C@H]4C[C@H](OC(=O)CCC(=O)[O-])CC[C@]4(C)[C@@H]3C[C@@H](O)[C@@]21C</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)NN)CC=CC=C1C(=S)OC(=O)/C=C(\[O-])OC(=S)C1=CC=CC[C@@]1(C)C(=O)NN</t>
+          <t>C[C@H](CCC(=O)[O-])[C@@H]1CC[C@H]2[C@H]3CC[C@H]4C[C@H](OC(=O)CCC(=O)[O-])CC[C@]4(C)[C@@H]3C[C@@H](O)[C@@]21C</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -10283,25 +10283,25 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>491.57</v>
+        <v>490.64</v>
       </c>
       <c r="H144" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J144" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L144" t="n">
         <v>0</v>
       </c>
       <c r="M144" t="n">
-        <v>168.83</v>
+        <v>126.79</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -10312,7 +10312,7 @@
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FD80&gt;</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
@@ -10324,7 +10324,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>C37245946</t>
+          <t>C25392697</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -10332,12 +10332,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>C[C@H](CCC(=O)[O-])[C@@H]1CC[C@H]2[C@H]3CC[C@H]4C[C@H](OC(=O)CCC(=O)[O-])CC[C@]4(C)[C@@H]3C[C@@H](O)[C@@]21C</t>
+          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>C[C@H](CCC(=O)[O-])[C@@H]1CC[C@H]2[C@H]3CC[C@H]4C[C@H](OC(=O)CCC(=O)[O-])CC[C@]4(C)[C@@H]3C[C@@H](O)[C@@]21C</t>
+          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -10351,25 +10351,25 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>490.64</v>
+        <v>509.36</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
       </c>
       <c r="I145" t="n">
+        <v>6</v>
+      </c>
+      <c r="J145" t="n">
         <v>7</v>
       </c>
-      <c r="J145" t="n">
-        <v>8</v>
-      </c>
       <c r="K145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M145" t="n">
-        <v>126.79</v>
+        <v>134.54</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -10380,7 +10380,7 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FE60&gt;</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
@@ -10392,7 +10392,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>C25392697</t>
+          <t>C08607241</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
+          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>O=C([O-])c1cccc(S(=O)(=O)Nc2cccc(S(=O)(=O)[N-]c3ccc(Br)cc3)c2)c1</t>
+          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -10419,25 +10419,25 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>509.36</v>
+        <v>448.53</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" t="n">
         <v>6</v>
       </c>
-      <c r="J146" t="n">
-        <v>7</v>
-      </c>
       <c r="K146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L146" t="n">
         <v>3</v>
       </c>
       <c r="M146" t="n">
-        <v>134.54</v>
+        <v>111.97</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -10448,7 +10448,7 @@
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FF40&gt;</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
@@ -10460,7 +10460,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>C08607241</t>
+          <t>C16031025</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -10468,12 +10468,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
+          <t>CC1([C@@H]2CC[C@H]3[C@@H]4CC[C@@H]5CC6(CC[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32CO)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CCSc1nc2n(n1)[C@@H](c1ccc(C(=O)[O-])cc1)C(C(=O)Nc1ccccc1C)=C(C)N2</t>
+          <t>CC1([C@@H]2CC[C@H]3[C@@H]4CC[C@@H]5CC6(CC[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32CO)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -10487,25 +10487,25 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>448.53</v>
+        <v>436.59</v>
       </c>
       <c r="H147" t="n">
         <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
         <v>6</v>
       </c>
-      <c r="K147" t="n">
-        <v>4</v>
-      </c>
       <c r="L147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>111.97</v>
+        <v>77.38</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E5E0&gt;</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
@@ -10528,7 +10528,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C16031025</t>
+          <t>C29554064</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CC1([C@@H]2CC[C@H]3[C@@H]4CC[C@@H]5CC6(CC[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32CO)OCCO6)OCCO1</t>
+          <t>O=S(=O)(OC(F)(F)F)c1ccc([C@H]2C[C@H]3CC[C@@H]2[NH2+]3)c[nH+]1</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CC1([C@@H]2CC[C@H]3[C@@H]4CC[C@@H]5CC6(CC[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32CO)OCCO6)OCCO1</t>
+          <t>O=S(=O)(OC(F)(F)F)c1ccc([C@H]2C[C@H]3CC[C@@H]2[NH2+]3)c[nH+]1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -10555,25 +10555,25 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>436.59</v>
+        <v>324.32</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>77.38</v>
+        <v>74.12</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -10584,7 +10584,7 @@
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F300&gt;</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
@@ -10596,7 +10596,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>C29554064</t>
+          <t>C65525851</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -10604,12 +10604,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>O=S(=O)(OC(F)(F)F)c1ccc([C@H]2C[C@H]3CC[C@@H]2[NH2+]3)c[nH+]1</t>
+          <t>Cc1ccc(C2(C[NH+]3CCC[C@@H](c4nc(C(C)C)no4)C3)CC[NH2+]CC2)nc1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>O=S(=O)(OC(F)(F)F)c1ccc([C@H]2C[C@H]3CC[C@@H]2[NH2+]3)c[nH+]1</t>
+          <t>Cc1ccc(C2(C[NH+]3CCC[C@@H](c4nc(C(C)C)no4)C3)CC[NH2+]CC2)nc1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10623,25 +10623,25 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>324.32</v>
+        <v>385.56</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M149" t="n">
-        <v>74.12</v>
+        <v>72.86</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -10652,7 +10652,7 @@
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E810&gt;</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
@@ -10664,7 +10664,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>C65525851</t>
+          <t>C39324550</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -10672,12 +10672,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2(C[NH+]3CCC[C@@H](c4nc(C(C)C)no4)C3)CC[NH2+]CC2)nc1</t>
+          <t>CC(=O)N1CC2=C(OC(N)=C(C#N)[C@@H]2c2ccccc2)/C(=C/c2ccccc2)C1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2(C[NH+]3CCC[C@@H](c4nc(C(C)C)no4)C3)CC[NH2+]CC2)nc1</t>
+          <t>CC(=O)N1CC2=C(OC(N)=C(C#N)[C@@H]2c2ccccc2)/C(=C/c2ccccc2)C1</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -10691,16 +10691,16 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>385.56</v>
+        <v>383.45</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>4</v>
       </c>
       <c r="J150" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K150" t="n">
         <v>4</v>
@@ -10709,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="M150" t="n">
-        <v>72.86</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -10720,7 +10720,7 @@
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAC9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F680&gt;</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
@@ -10732,7 +10732,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>C39324550</t>
+          <t>C14458200</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -10740,12 +10740,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CC(=O)N1CC2=C(OC(N)=C(C#N)[C@@H]2c2ccccc2)/C(=C/c2ccccc2)C1</t>
+          <t>Cc1cc(C)c([C@H]2Nc3ccc(C(=O)N(C)C)cc3[C@H]3C=CC[C@H]32)c(C)c1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CC(=O)N1CC2=C(OC(N)=C(C#N)[C@@H]2c2ccccc2)/C(=C/c2ccccc2)C1</t>
+          <t>Cc1cc(C)c([C@H]2Nc3ccc(C(=O)N(C)C)cc3[C@H]3C=CC[C@H]32)c(C)c1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10759,13 +10759,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>383.45</v>
+        <v>360.5</v>
       </c>
       <c r="H151" t="n">
         <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J151" t="n">
         <v>2</v>
@@ -10777,7 +10777,7 @@
         <v>2</v>
       </c>
       <c r="M151" t="n">
-        <v>79.34999999999999</v>
+        <v>32.34</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -10788,7 +10788,7 @@
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FDF0&gt;</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
@@ -10800,7 +10800,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>C14458200</t>
+          <t>C62790820</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -10808,12 +10808,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c([C@H]2Nc3ccc(C(=O)N(C)C)cc3[C@H]3C=CC[C@H]32)c(C)c1</t>
+          <t>Nc1cc(Br)ccc1-c1nc(-c2ccc(F)c(Cl)c2)no1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Cc1cc(C)c([C@H]2Nc3ccc(C(=O)N(C)C)cc3[C@H]3C=CC[C@H]32)c(C)c1</t>
+          <t>Nc1cc(Br)ccc1-c1nc(-c2ccc(F)c(Cl)c2)no1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -10827,25 +10827,25 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>360.5</v>
+        <v>368.59</v>
       </c>
       <c r="H152" t="n">
         <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J152" t="n">
         <v>2</v>
       </c>
       <c r="K152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M152" t="n">
-        <v>32.34</v>
+        <v>64.94</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -10856,7 +10856,7 @@
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EAB0&gt;</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
@@ -10868,7 +10868,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>C62790820</t>
+          <t>C19333544</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)ccc1-c1nc(-c2ccc(F)c(Cl)c2)no1</t>
+          <t>C(=N/N=C(\c1ccccc1)C12CN3CN(C[NH+](C3)C1)C2)\c1c2ccccc2cc2ccccc12</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Nc1cc(Br)ccc1-c1nc(-c2ccc(F)c(Cl)c2)no1</t>
+          <t>C(=N/N=C(\c1ccccc1)C12CN3CN(C[NH+](C3)C1)C2)\c1c2ccccc2cc2ccccc12</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -10895,25 +10895,25 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>368.59</v>
+        <v>446.58</v>
       </c>
       <c r="H153" t="n">
         <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K153" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L153" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M153" t="n">
-        <v>64.94</v>
+        <v>35.64</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -10924,7 +10924,7 @@
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EE30&gt;</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
@@ -10936,7 +10936,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>C19333544</t>
+          <t>C04345821</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -10944,12 +10944,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>C(=N/N=C(\c1ccccc1)C12CN3CN(C[NH+](C3)C1)C2)\c1c2ccccc2cc2ccccc12</t>
+          <t>CCCC[C@H](CC)C(=O)N(CC(=O)N(Cc1ccco1)Cc1cccn1C)C1CC1</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>C(=N/N=C(\c1ccccc1)C12CN3CN(C[NH+](C3)C1)C2)\c1c2ccccc2cc2ccccc12</t>
+          <t>CCCC[C@H](CC)C(=O)N(CC(=O)N(Cc1ccco1)Cc1cccn1C)C1CC1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10963,25 +10963,25 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>446.58</v>
+        <v>413.56</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K154" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L154" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M154" t="n">
-        <v>35.64</v>
+        <v>58.69</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -10992,7 +10992,7 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAD690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FA70&gt;</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
@@ -11004,7 +11004,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>C04345821</t>
+          <t>C36573993</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -11012,12 +11012,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CCCC[C@H](CC)C(=O)N(CC(=O)N(Cc1ccco1)Cc1cccn1C)C1CC1</t>
+          <t>CCCC(=O)N(CCC)[C@@H](C(=O)NC(C)(C)CC(C)(C)C)C(CC)CC</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>CCCC[C@H](CC)C(=O)N(CC(=O)N(Cc1ccco1)Cc1cccn1C)C1CC1</t>
+          <t>CCCC(=O)N(CCC)[C@@H](C(=O)NC(C)(C)CC(C)(C)C)C(CC)CC</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -11031,25 +11031,25 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>413.56</v>
+        <v>368.61</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>58.69</v>
+        <v>49.41</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -11060,7 +11060,7 @@
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FB50&gt;</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
@@ -11072,7 +11072,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>C36573993</t>
+          <t>C48888661</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -11080,12 +11080,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>CCCC(=O)N(CCC)[C@@H](C(=O)NC(C)(C)CC(C)(C)C)C(CC)CC</t>
+          <t>Cc1nc(C)c([C@@H](C)NC(=O)NC2CCC(O)CC2)s1</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CCCC(=O)N(CCC)[C@@H](C(=O)NC(C)(C)CC(C)(C)C)C(CC)CC</t>
+          <t>Cc1nc(C)c([C@@H](C)NC(=O)NC2CCC(O)CC2)s1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -11099,25 +11099,25 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>368.61</v>
+        <v>297.42</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M156" t="n">
-        <v>49.41</v>
+        <v>74.25</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -11128,7 +11128,7 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAE490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EFF0&gt;</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
@@ -11140,7 +11140,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C48888661</t>
+          <t>C25408288</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -11148,12 +11148,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cc1nc(C)c([C@@H](C)NC(=O)NC2CCC(O)CC2)s1</t>
+          <t>Cc1ccc(NC(=O)C[NH+]2CCN(S(=O)(=O)c3ccccc3Cl)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Cc1nc(C)c([C@@H](C)NC(=O)NC2CCC(O)CC2)s1</t>
+          <t>Cc1ccc(NC(=O)C[NH+]2CCN(S(=O)(=O)c3ccccc3Cl)CC2)cc1Cl</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -11167,25 +11167,25 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>297.42</v>
+        <v>443.38</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
         <v>3</v>
       </c>
       <c r="J157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K157" t="n">
         <v>3</v>
       </c>
-      <c r="K157" t="n">
-        <v>2</v>
-      </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M157" t="n">
-        <v>74.25</v>
+        <v>70.92</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E3B0&gt;</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
@@ -11208,7 +11208,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>C25408288</t>
+          <t>CHEMBL1080994</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -11216,12 +11216,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)C[NH+]2CCN(S(=O)(=O)c3ccccc3Cl)CC2)cc1Cl</t>
+          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)C[NH+]2CCN(S(=O)(=O)c3ccccc3Cl)CC2)cc1Cl</t>
+          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -11231,40 +11231,66 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>443.38</v>
+        <v>512.64</v>
       </c>
       <c r="H158" t="n">
         <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J158" t="n">
+        <v>6</v>
+      </c>
+      <c r="K158" t="n">
         <v>5</v>
       </c>
-      <c r="K158" t="n">
-        <v>3</v>
-      </c>
       <c r="L158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M158" t="n">
-        <v>70.92</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
+        <v>105.12</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>41000</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>CHEMBL1114002</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Inhibition of PKCbeta</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16EB20&gt;</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
@@ -11276,7 +11302,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CHEMBL1080994</t>
+          <t>CHEMBL1929247</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -11284,12 +11310,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
+          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2c(C#N)cncc2/C=C/c2cccc(S(=O)(=O)N3CCN(C)CC3)c2)ccc2[nH]ccc12</t>
+          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -11303,29 +11329,29 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>512.64</v>
+        <v>282.41</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J159" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>105.12</v>
+        <v>63.4</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -11335,20 +11361,20 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>41000</v>
+        <v>16</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>CHEMBL1114002</t>
+          <t>CHEMBL1929909</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>Inhibition of PKCbeta</t>
+          <t>Inhibition of PKCbeta2 at 10 uM</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
@@ -11358,7 +11384,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F4C0&gt;</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
@@ -11370,7 +11396,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>CHEMBL1929247</t>
+          <t>CHEMBL2333112</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -11378,12 +11404,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
+          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -11397,25 +11423,25 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>282.41</v>
+        <v>307.36</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J160" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M160" t="n">
-        <v>63.4</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11433,16 +11459,16 @@
         </is>
       </c>
       <c r="Q160" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>CHEMBL1929909</t>
+          <t>CHEMBL2345064</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>Inhibition of PKCbeta2 at 10 uM</t>
+          <t>Inhibition of PRKCbeta1 (unknown origin) at 10 uM relative to control</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
@@ -11452,7 +11478,7 @@
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F7D0&gt;</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
@@ -11464,7 +11490,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>CHEMBL2333112</t>
+          <t>CHEMBL1682017</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -11472,12 +11498,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
+          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CC(C)Nc1c(C(N)=O)nnc2cc(-c3ccncc3)ccc12</t>
+          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -11491,52 +11517,52 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>307.36</v>
+        <v>369.84</v>
       </c>
       <c r="H161" t="n">
         <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J161" t="n">
         <v>4</v>
       </c>
       <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4</v>
+      </c>
+      <c r="M161" t="n">
+        <v>83.56</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Inhibition</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
         <v>3</v>
       </c>
-      <c r="L161" t="n">
-        <v>3</v>
-      </c>
-      <c r="M161" t="n">
-        <v>93.79000000000001</v>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>15</v>
-      </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>CHEMBL2345064</t>
+          <t>CHEMBL1686797</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>Inhibition of PRKCbeta1 (unknown origin) at 10 uM relative to control</t>
+          <t>Inhibition of PRKCB1 at 10 uM</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
@@ -11546,7 +11572,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16FCA0&gt;</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
@@ -11558,7 +11584,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CHEMBL1682017</t>
+          <t>CHEMBL1794070</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -11566,12 +11592,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>O=C(Cc1cccc2cnccc12)Nc1scc(Cl)c1-c1ncn[nH]1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -11585,25 +11611,25 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>369.84</v>
+        <v>511.05</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J162" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L162" t="n">
         <v>4</v>
       </c>
       <c r="M162" t="n">
-        <v>83.56</v>
+        <v>82.61</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -11621,16 +11647,16 @@
         </is>
       </c>
       <c r="Q162" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>CHEMBL1686797</t>
+          <t>CHEMBL1961910</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>Inhibition of PRKCB1 at 10 uM</t>
+          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
@@ -11640,7 +11666,7 @@
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F0D0&gt;</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
@@ -11652,7 +11678,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>CHEMBL1794070</t>
+          <t>CHEMBL185710</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -11660,12 +11686,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -11679,25 +11705,25 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>511.05</v>
+        <v>230.23</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J163" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K163" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M163" t="n">
-        <v>82.61</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -11715,7 +11741,7 @@
         </is>
       </c>
       <c r="Q163" t="n">
-        <v>3.64</v>
+        <v>0.38</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -11734,7 +11760,7 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16E960&gt;</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
@@ -11746,7 +11772,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CHEMBL185710</t>
+          <t>CHEMBL1909396</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -11754,12 +11780,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
+          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2ccncc21</t>
+          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -11773,25 +11799,25 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>230.23</v>
+        <v>537.47</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I164" t="n">
         <v>6</v>
       </c>
       <c r="J164" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M164" t="n">
-        <v>95.65000000000001</v>
+        <v>115.3</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -11809,16 +11835,16 @@
         </is>
       </c>
       <c r="Q164" t="n">
-        <v>0.38</v>
+        <v>3.94</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>CHEMBL1961910</t>
+          <t>CHEMBL1961911</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -11828,7 +11854,7 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F060&gt;</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
@@ -11840,7 +11866,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CHEMBL1909396</t>
+          <t>CHEMBL1909403</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -11848,12 +11874,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
+          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2oc3ncnc(N)c3c2-c2ccc(NC(=O)Nc3cc(C(F)(F)F)ccc3F)cc2)cc1</t>
+          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -11867,25 +11893,25 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>537.47</v>
+        <v>431.39</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
+        <v>5</v>
+      </c>
+      <c r="J165" t="n">
         <v>6</v>
       </c>
-      <c r="J165" t="n">
-        <v>5</v>
-      </c>
       <c r="K165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>115.3</v>
+        <v>75.34</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -11903,16 +11929,16 @@
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>3.94</v>
+        <v>4.45</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>CHEMBL1961911</t>
+          <t>CHEMBL1961901</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
@@ -11922,7 +11948,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD16F1B0&gt;</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
@@ -11934,7 +11960,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>CHEMBL1909403</t>
+          <t>CHEMBL204934</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -11942,12 +11968,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11961,17 +11987,17 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>431.39</v>
+        <v>345.37</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
+        <v>6</v>
+      </c>
+      <c r="J166" t="n">
         <v>5</v>
       </c>
-      <c r="J166" t="n">
-        <v>6</v>
-      </c>
       <c r="K166" t="n">
         <v>4</v>
       </c>
@@ -11979,7 +12005,7 @@
         <v>4</v>
       </c>
       <c r="M166" t="n">
-        <v>75.34</v>
+        <v>90.11</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -11997,16 +12023,16 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>4.45</v>
+        <v>3.38</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>CHEMBL1961901</t>
+          <t>CHEMBL1961900</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -12016,7 +12042,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD181310&gt;</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
@@ -12028,7 +12054,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CHEMBL204934</t>
+          <t>CHEMBL359963</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -12036,12 +12062,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
+          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2cnc3c(N/N=C/c4ccncc4)ncnc32)c1</t>
+          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12055,16 +12081,16 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>345.37</v>
+        <v>330.4</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K167" t="n">
         <v>4</v>
@@ -12073,7 +12099,7 @@
         <v>4</v>
       </c>
       <c r="M167" t="n">
-        <v>90.11</v>
+        <v>68</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12091,7 +12117,7 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>3.38</v>
+        <v>1.04</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12110,7 +12136,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAF680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180270&gt;</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
@@ -12122,7 +12148,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CHEMBL359963</t>
+          <t>CHEMBL397570</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -12130,12 +12156,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CC(C)c1ccc(Nc2nccc(-c3cnn4ncccc34)n2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12149,25 +12175,25 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>330.4</v>
+        <v>300.36</v>
       </c>
       <c r="H168" t="n">
         <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M168" t="n">
-        <v>68</v>
+        <v>52.89</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12185,16 +12211,16 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>1.04</v>
+        <v>0.61</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>CHEMBL1961900</t>
+          <t>CHEMBL1961911</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta1 (splice variant) mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -12204,7 +12230,7 @@
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD1802E0&gt;</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
@@ -12216,7 +12242,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CHEMBL397570</t>
+          <t>CHEMBL4278763</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -12224,12 +12250,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
+          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
+          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -12243,25 +12269,25 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>300.36</v>
+        <v>469.57</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J169" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K169" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L169" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M169" t="n">
-        <v>52.89</v>
+        <v>116.37</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12279,16 +12305,16 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>0.61</v>
+        <v>2</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>CHEMBL1961911</t>
+          <t>CHEMBL4263911</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>GSK_PKIS: PKC-beta2 (splice variant) mean inhibition at 1 uM [Nanosyn]</t>
+          <t>Inhibition of PKC-BETA2 (unknown origin) at 1 uM relative to control</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -12298,104 +12324,10 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAEEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002CFCD180740&gt;</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>CHEMBL4278763</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>469.57</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4</v>
-      </c>
-      <c r="K170" t="n">
-        <v>6</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5</v>
-      </c>
-      <c r="M170" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q170" t="n">
-        <v>2</v>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>CHEMBL4263911</t>
-        </is>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>Inhibition of PKC-BETA2 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001685CDAFC30&gt;</t>
-        </is>
-      </c>
-      <c r="V170" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
